--- a/Docs/数据库设计书.xlsx
+++ b/Docs/数据库设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9710" tabRatio="673" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9710" tabRatio="673" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="客户信息表" sheetId="13" r:id="rId12"/>
     <sheet name="客户联系人信息表" sheetId="17" r:id="rId13"/>
     <sheet name="客户画像信息表" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="230">
   <si>
     <t>备注</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -912,6 +913,78 @@
   </si>
   <si>
     <t>datetime</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar (10)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>线索，潜在客户，目标客户，售中客户…</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpose</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>售前；售中，售后….</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>outcome</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终结果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始执行时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ft</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行状态</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1183,14 +1256,14 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1510,6 +1583,113 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>客户画像信息表</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2387600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05073A68-9EE1-483E-8819-47B9E6D177BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609599" y="142875"/>
+          <a:ext cx="9880601" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4F81BD">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>关系信息表</a:t>
           </a:r>
           <a:endParaRPr kumimoji="0" lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -2725,7 +2905,7 @@
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>69</v>
       </c>
       <c r="H3" s="6"/>
@@ -2744,7 +2924,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>152</v>
       </c>
       <c r="H4" s="6"/>
@@ -2763,7 +2943,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="14">
@@ -2780,7 +2960,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="23" t="s">
         <v>157</v>
       </c>
       <c r="H6" s="6"/>
@@ -2799,7 +2979,7 @@
         <v>160</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" ht="14">
@@ -2814,7 +2994,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="25">
+      <c r="G8" s="23">
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
@@ -2831,7 +3011,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="14">
@@ -2846,7 +3026,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>169</v>
       </c>
       <c r="H10" s="6"/>
@@ -2863,7 +3043,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="23" t="s">
         <v>173</v>
       </c>
       <c r="H11" s="6"/>
@@ -2874,7 +3054,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" ht="14">
@@ -2883,7 +3063,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="14">
@@ -2892,7 +3072,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="14">
@@ -2901,7 +3081,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="14">
@@ -2910,7 +3090,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" ht="14">
@@ -3101,7 +3281,7 @@
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>69</v>
       </c>
       <c r="H3" s="6"/>
@@ -3120,7 +3300,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="14">
@@ -3137,7 +3317,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <v>0</v>
       </c>
       <c r="H5" s="6"/>
@@ -3156,7 +3336,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="23" t="s">
         <v>183</v>
       </c>
       <c r="H6" s="6"/>
@@ -3167,7 +3347,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" ht="14">
@@ -3176,7 +3356,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" ht="14">
@@ -3185,7 +3365,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="14">
@@ -3194,7 +3374,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" ht="14">
@@ -3203,7 +3383,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="14">
@@ -3212,7 +3392,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" ht="14">
@@ -3221,7 +3401,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="14">
@@ -3230,7 +3410,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="14">
@@ -3239,7 +3419,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="14">
@@ -3248,7 +3428,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" ht="14">
@@ -3382,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -3424,7 +3604,7 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:8" ht="14">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3726,12 +3906,22 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="14">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="14">
@@ -3861,7 +4051,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
@@ -3898,7 +4088,7 @@
       </c>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="2:8" ht="14">
+    <row r="3" spans="2:8">
       <c r="B3" s="4" t="s">
         <v>201</v>
       </c>
@@ -3917,7 +4107,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:8" ht="14">
+    <row r="4" spans="2:8">
       <c r="B4" s="4" t="s">
         <v>204</v>
       </c>
@@ -3936,7 +4126,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8" ht="14">
+    <row r="5" spans="2:8">
       <c r="B5" s="4" t="s">
         <v>202</v>
       </c>
@@ -3953,7 +4143,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:8" ht="14">
+    <row r="6" spans="2:8">
       <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
@@ -3972,7 +4162,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:8" ht="14">
+    <row r="7" spans="2:8">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
@@ -3989,7 +4179,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:8" ht="14">
+    <row r="8" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
@@ -4006,7 +4196,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" ht="14">
+    <row r="9" spans="2:8">
       <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
@@ -4023,7 +4213,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:8" ht="14">
+    <row r="10" spans="2:8">
       <c r="B10" s="4" t="s">
         <v>61</v>
       </c>
@@ -4040,7 +4230,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:8" ht="14">
+    <row r="11" spans="2:8">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4049,7 +4239,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" ht="14">
+    <row r="12" spans="2:8">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -4058,7 +4248,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="14">
+    <row r="13" spans="2:8">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4067,7 +4257,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="2:8" ht="14">
+    <row r="14" spans="2:8">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4076,7 +4266,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:8" ht="14">
+    <row r="15" spans="2:8">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4085,7 +4275,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" ht="14">
+    <row r="16" spans="2:8">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4094,7 +4284,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" ht="14">
+    <row r="17" spans="2:8">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4103,7 +4293,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" ht="14">
+    <row r="18" spans="2:8">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4112,7 +4302,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" ht="14">
+    <row r="19" spans="2:8">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4121,7 +4311,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" ht="14">
+    <row r="20" spans="2:8">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4130,7 +4320,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" ht="14">
+    <row r="21" spans="2:8">
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
       <c r="D21" s="5"/>
@@ -4139,7 +4329,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" ht="14">
+    <row r="22" spans="2:8">
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
@@ -4148,7 +4338,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" ht="14">
+    <row r="23" spans="2:8">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -4157,7 +4347,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" ht="14">
+    <row r="24" spans="2:8">
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
       <c r="D24" s="5"/>
@@ -4166,7 +4356,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" ht="14">
+    <row r="25" spans="2:8">
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
@@ -4175,7 +4365,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" ht="14">
+    <row r="26" spans="2:8">
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
       <c r="D26" s="5"/>
@@ -4184,7 +4374,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" ht="14">
+    <row r="27" spans="2:8">
       <c r="B27" s="4"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4193,10 +4383,10 @@
       <c r="G27" s="9"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="2:8" ht="14"/>
-    <row r="29" spans="2:8" ht="14"/>
-    <row r="30" spans="2:8" ht="14"/>
-    <row r="31" spans="2:8" ht="14"/>
+    <row r="28" spans="2:8"/>
+    <row r="29" spans="2:8"/>
+    <row r="30" spans="2:8"/>
+    <row r="31" spans="2:8"/>
     <row r="32" spans="2:8" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
@@ -4217,7 +4407,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -4336,7 +4526,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" ht="14">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>206</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4614,6 +4804,443 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E21">
+      <formula1>"Yes,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="19" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="52.5" customHeight="1"/>
+    <row r="2" spans="2:8" ht="17.5">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="2:8" ht="14">
+      <c r="B3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8" ht="14">
+      <c r="B4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" ht="14">
+      <c r="B5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="14">
+      <c r="B6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" ht="14">
+      <c r="B7" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="14">
+      <c r="B8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" ht="14">
+      <c r="B9" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" ht="14">
+      <c r="B10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="14">
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" ht="14">
+      <c r="B12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" ht="14">
+      <c r="B13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" ht="14">
+      <c r="B14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" ht="14">
+      <c r="B15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" ht="14">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" ht="14">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" ht="14">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" ht="14">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" ht="14">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" ht="14">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" ht="14">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" ht="14">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" ht="14">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" ht="14">
+      <c r="B25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" ht="14">
+      <c r="B26" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" ht="14">
+      <c r="B27" s="4"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" ht="14">
+      <c r="B28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" ht="14">
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" ht="14">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="2:8" ht="14"/>
+    <row r="32" spans="2:8" ht="14"/>
+    <row r="33" ht="14"/>
+    <row r="34" ht="14"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15" customHeight="1"/>
+    <row r="37" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E23">
       <formula1>"Yes,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5403,15 +6030,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="15" t="s">

--- a/Docs/数据库设计书.xlsx
+++ b/Docs/数据库设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9710" tabRatio="673" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9710" tabRatio="673" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="客户信息表" sheetId="13" r:id="rId12"/>
     <sheet name="客户联系人信息表" sheetId="17" r:id="rId13"/>
     <sheet name="客户画像信息表" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId15"/>
+    <sheet name="关系信息表" sheetId="18" r:id="rId15"/>
+    <sheet name="关系执行计划表" sheetId="19" r:id="rId16"/>
+    <sheet name="日志信息表" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="285">
   <si>
     <t>备注</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -134,11 +136,845 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>流水编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>logid</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（20）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>logpwd</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（64）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（10）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ename</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleid</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任区域编码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为0，无责任区</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>同百度地图数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>aname</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>同百度地图数据，"00"代表全国</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>同百度地图数据，"00"代表全国</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（4）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认汉族</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公电话</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人电话</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5加密，默认是123456</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（200）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举，默认在职，请假，离职，</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rname</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为1，可用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属单位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dame</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（50）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门地址</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（100）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sname</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件路径</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支节点没有path</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>presysno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点为-1，手动添加不可删除</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级功能节点编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要的辅助信息信息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为：类别</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户唯一编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH+SY+存储时刻的毫秒数后8位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cname</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在区域编码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确到区县</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>areano</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（10）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cgrade</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户等级</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>参见数据字典</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上个项目的满意程度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓越，优秀，良好，满意，不满意</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户银行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（50）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行-东软支行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政编码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>char（6）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网地址</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>mincode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称助记码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（10）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称汉语拼音生母</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（100）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>provider</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供者</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为当前填写人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servicer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售主管</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为当前地区区域经理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为1，一般员工，销售主管，等</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraitno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（14）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数，唯一，默认为零，以上架时间为准，产生之后不再改变</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>mincode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名助记码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称汉语拼音生母</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品网页地址</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（100）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（50）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（120）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>onsale</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下架</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0，下架</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0，未填</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>kno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次修改时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now（）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>productno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>productno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求的迫切程度–主要描述供应情况</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励–产品是否对用户有好处</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>共识–是否与用户达成一致</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动计划–执行过程符合用户愿景</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能–用户能否完整的使用产品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源–是否有用户所有需要的东西</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，1~5，小数点保留一位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>excitation</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>technique</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>urgency</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>consensus</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">action </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近合同签署时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar (10)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>线索，潜在客户，目标客户，售中客户…</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>outcome</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终结果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始执行时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ft</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>empno</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>流水编号</t>
+    <t>empno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now（）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>probability</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -146,65 +982,79 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>logid</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（20）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>UK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>logpwd</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（64）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工姓名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（10）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ename</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleid</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色编号</t>
+    <t>成功机率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0；0,12,3….99，</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcahr（100）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：计算机大赛参赛单位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>确立契机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未审批；执行中，提前成功，成功，失败</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>planno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（100）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作描述</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人节送玫瑰999999999999朵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待启动；成功；失败；无需执行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now（），系统自动维护</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpose</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系类型</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -216,15 +1066,131 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>job</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任区域编码</t>
+    <t>售前；售中，售后，防流失</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成销售，售中服务提升质量，…</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级地区编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>logno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水编号，自动生成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginfo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志信息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键信息自动生成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统填写时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>readed</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已读</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0；0,1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fromempno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发信人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>因张三操作数据库导致其它多人需要关注结果，那么张三是发信人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>toempno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>收信人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该注意本日志的人，如果是多人，请使用多条记录</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读日志的时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>null；系统维护</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（100）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0，可用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属角色</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -232,759 +1198,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>默认为0，无责任区</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>同百度地图数据</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>aname</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>pano</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级区域编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>同百度地图数据，"00"代表全国</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>同百度地图数据，"00"代表全国</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（4）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认汉族</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公电话</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>私人电话</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD5加密，默认是123456</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（200）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举，默认在职，请假，离职，</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>rname</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>nbl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否禁用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为1，可用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>deptno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属单位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>deptno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dame</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（50）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>loc</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（100）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>sname</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件路径</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支节点没有path</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>presysno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>根节点为-1，手动添加不可删除</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>父级功能节点编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据项</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>info</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>必要的辅助信息信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为：类别</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cid</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户唯一编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>KH+SY+存储时刻的毫秒数后8位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cname</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在区域编码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>精确到区县</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>areano</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（10）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cgrade</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户等级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>参见数据字典</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Satisfaction</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对上个项目的满意程度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓越，优秀，良好，满意，不满意</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>deposit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户银行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（50）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>招行-东软支行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>zipcode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政编码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>char（6）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>mincode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称助记码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（10）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称汉语拼音生母</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（100）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>provider</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供者</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为当前填写人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Servicer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户经理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售主管</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为当前地区区域经理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为1，一般员工，销售主管，等</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraitno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>pno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（14）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数，唯一，默认为零，以上架时间为准，产生之后不再改变</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>pname</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>mincode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名助记码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称汉语拼音生母</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品网页地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（100）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>定价</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（50）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（120）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>onsale</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下架</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0，下架</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品分类</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0，未填</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>kno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>word</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用次数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次修改时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>now（）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>productno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>productno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求的迫切程度–主要描述供应情况</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>激励–产品是否对用户有好处</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>共识–是否与用户达成一致</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动计划–执行过程符合用户愿景</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能–用户能否完整的使用产品</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源–是否有用户所有需要的东西</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，1~5，小数点保留一位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>excitation</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>technique</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>pno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>pname</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>urgency</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>consensus</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">action </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近合同签署时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar (10)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>线索，潜在客户，目标客户，售中客户…</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>rno</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>info</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>purpose</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>售前；售中，售后….</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>outcome</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终结果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始执行时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ft</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>et</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行状态</t>
+    <t>0, 0:系统，表达系统具有的所有功能，其它代表某个角色所用于的功能，但最终都必须能够构成一棵树</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水编号系统管理，但是0号代表树根，不能删除</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的收获，未成功的教训，流失原因等</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1690,6 +1912,220 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>关系信息表</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2387600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05073A68-9EE1-483E-8819-47B9E6D177BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609599" y="142875"/>
+          <a:ext cx="9880601" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4F81BD">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>关系执行计划表</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2387600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05073A68-9EE1-483E-8819-47B9E6D177BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609599" y="142875"/>
+          <a:ext cx="9715501" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4F81BD">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日志信息表</a:t>
           </a:r>
           <a:endParaRPr kumimoji="0" lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -2849,7 +3285,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -2882,7 +3318,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -2891,56 +3327,56 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="28">
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="23"/>
@@ -2948,35 +3384,35 @@
     </row>
     <row r="6" spans="2:8" ht="14">
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" ht="14">
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="23"/>
@@ -2984,13 +3420,13 @@
     </row>
     <row r="8" spans="2:8" ht="14">
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -3001,13 +3437,13 @@
     </row>
     <row r="9" spans="2:8" ht="14">
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3016,35 +3452,35 @@
     </row>
     <row r="10" spans="2:8" ht="14">
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" ht="14">
       <c r="B11" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -3174,37 +3610,13 @@
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" ht="14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" ht="14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" ht="14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="2:8" ht="14"/>
-    <row r="30" spans="2:8" ht="14"/>
-    <row r="31" spans="2:8" ht="14"/>
-    <row r="32" spans="2:8" ht="14"/>
+    <row r="26" spans="2:8" ht="14"/>
+    <row r="27" spans="2:8" ht="15" customHeight="1"/>
+    <row r="28" spans="2:8" ht="15" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1"/>
+    <row r="31" spans="2:8" ht="15" customHeight="1"/>
+    <row r="32" spans="2:8" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -3224,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -3258,7 +3670,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -3267,37 +3679,37 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="23"/>
@@ -3305,16 +3717,16 @@
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="23">
@@ -3324,20 +3736,20 @@
     </row>
     <row r="6" spans="2:8" ht="14">
       <c r="B6" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="23" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -3485,64 +3897,16 @@
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" ht="14">
-      <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="2:8" ht="14">
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:8" ht="14">
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" ht="14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" ht="14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" ht="14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="2:8" ht="14"/>
-    <row r="30" spans="2:8" ht="14"/>
-    <row r="31" spans="2:8" ht="14"/>
-    <row r="32" spans="2:8" ht="14"/>
+    <row r="23" spans="2:8" ht="14"/>
+    <row r="24" spans="2:8" ht="15" customHeight="1"/>
+    <row r="25" spans="2:8" ht="15" customHeight="1"/>
+    <row r="26" spans="2:8" ht="15" customHeight="1"/>
+    <row r="27" spans="2:8" ht="15" customHeight="1"/>
+    <row r="28" spans="2:8" ht="15" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1"/>
+    <row r="31" spans="2:8" ht="15" customHeight="1"/>
+    <row r="32" spans="2:8" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -3563,7 +3927,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -3596,7 +3960,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -3605,56 +3969,56 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3662,98 +4026,98 @@
     </row>
     <row r="6" spans="2:8" ht="14">
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" ht="14">
       <c r="B7" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" ht="14">
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" ht="14">
       <c r="B9" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="14">
       <c r="B10" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3761,35 +4125,35 @@
     </row>
     <row r="11" spans="2:8" ht="14">
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="14">
       <c r="B12" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3797,16 +4161,16 @@
     </row>
     <row r="13" spans="2:8" ht="14">
       <c r="B13" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
@@ -3816,16 +4180,16 @@
     </row>
     <row r="14" spans="2:8" ht="14">
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3833,16 +4197,16 @@
     </row>
     <row r="15" spans="2:8" ht="14">
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3850,77 +4214,77 @@
     </row>
     <row r="16" spans="2:8" ht="14">
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" ht="14">
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" ht="14">
       <c r="B18" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="14">
       <c r="B19" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -3996,37 +4360,13 @@
       <c r="G27" s="8"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" ht="14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:8" ht="14">
-      <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="2:8" ht="14">
-      <c r="B30" s="4"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="2:8" ht="14"/>
-    <row r="32" spans="2:8" ht="14"/>
-    <row r="33" ht="14"/>
-    <row r="34" ht="14"/>
+    <row r="28" spans="2:8" ht="15" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1"/>
+    <row r="31" spans="2:8" ht="15" customHeight="1"/>
+    <row r="32" spans="2:8" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
     <row r="36" ht="15" customHeight="1"/>
     <row r="37" ht="15" customHeight="1"/>
@@ -4047,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
@@ -4081,7 +4421,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -4090,54 +4430,54 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="19"/>
@@ -4145,35 +4485,35 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="19"/>
@@ -4181,16 +4521,16 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="19"/>
@@ -4198,16 +4538,16 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="19"/>
@@ -4215,16 +4555,16 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="19"/>
@@ -4356,40 +4696,16 @@
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="4"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="2:8"/>
-    <row r="29" spans="2:8"/>
-    <row r="30" spans="2:8"/>
+    <row r="25" spans="2:8"/>
+    <row r="26" spans="2:8"/>
+    <row r="27" spans="2:8"/>
+    <row r="28" spans="2:8" ht="15" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1"/>
     <row r="31" spans="2:8"/>
-    <row r="32" spans="2:8" ht="15" customHeight="1"/>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
+    <row r="32" spans="2:8"/>
+    <row r="33"/>
+    <row r="34"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
@@ -4406,8 +4722,402 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="19" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="52.5" customHeight="1"/>
+    <row r="2" spans="2:8" ht="17.5">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="2:8" ht="14">
+      <c r="B3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8" ht="14">
+      <c r="B4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" ht="14">
+      <c r="B5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="14">
+      <c r="B6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" ht="14">
+      <c r="B7" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="14">
+      <c r="B8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" ht="14">
+      <c r="B9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" ht="14">
+      <c r="B10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="14">
+      <c r="B11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" ht="14">
+      <c r="B12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" ht="14">
+      <c r="B13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" ht="14">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" ht="14">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" ht="14">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" ht="14">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" ht="14">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" ht="14">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" ht="14">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" ht="14">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" ht="14">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" ht="14">
+      <c r="B23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" ht="14">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" ht="14">
+      <c r="B25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" ht="14">
+      <c r="B26" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" ht="14"/>
+    <row r="28" spans="2:8" ht="14"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1"/>
+    <row r="31" spans="2:8" ht="15" customHeight="1"/>
+    <row r="32" spans="2:8" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E21">
+      <formula1>"Yes,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -4440,7 +5150,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -4449,231 +5159,251 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>236</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="G4" s="19"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>249</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="14">
       <c r="B6" s="4" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>186</v>
+        <v>46</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:8" ht="14">
-      <c r="B7" s="23" t="s">
-        <v>206</v>
+    <row r="7" spans="2:8" ht="28">
+      <c r="B7" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>195</v>
+      <c r="G7" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:8" ht="14">
+    <row r="8" spans="2:8" ht="28">
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>195</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" ht="14">
       <c r="B9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>195</v>
+      <c r="G9" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="14">
-      <c r="B10" s="4" t="s">
-        <v>208</v>
+      <c r="B10" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" ht="14">
       <c r="B11" s="4" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="14">
       <c r="B12" s="4" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="G12" s="19"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" ht="14">
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>199</v>
+      <c r="G13" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="14">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="19" t="s">
+        <v>230</v>
+      </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="14">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="19" t="s">
+        <v>232</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="14">
@@ -4682,7 +5412,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" ht="14">
@@ -4691,7 +5421,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" ht="14">
@@ -4700,7 +5430,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="14">
@@ -4709,7 +5439,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="14">
@@ -4718,7 +5448,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" ht="14">
@@ -4727,7 +5457,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" ht="14">
@@ -4736,7 +5466,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" ht="14">
@@ -4745,7 +5475,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" ht="14">
@@ -4754,7 +5484,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:8" ht="14">
@@ -4763,7 +5493,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" ht="14">
@@ -4772,7 +5502,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" ht="14">
@@ -4781,25 +5511,20 @@
       <c r="D27" s="5"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" ht="14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="17"/>
-    </row>
+    <row r="28" spans="2:8" ht="14"/>
     <row r="29" spans="2:8" ht="14"/>
     <row r="30" spans="2:8" ht="14"/>
     <row r="31" spans="2:8" ht="14"/>
-    <row r="32" spans="2:8" ht="14"/>
+    <row r="32" spans="2:8" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15" customHeight="1"/>
+    <row r="37" ht="15" customHeight="1"/>
+    <row r="38" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
@@ -4813,12 +5538,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -4851,7 +5576,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -4860,239 +5585,211 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="4" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>251</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>220</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="14">
       <c r="B6" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>240</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" ht="14">
       <c r="B7" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>186</v>
+      <c r="F7" s="4"/>
+      <c r="G7" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" ht="14">
-      <c r="B8" s="4" t="s">
-        <v>225</v>
+      <c r="B8" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>183</v>
-      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" ht="14">
-      <c r="B9" s="23" t="s">
-        <v>223</v>
+      <c r="B9" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="14">
       <c r="B10" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" ht="14">
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="19" t="s">
+        <v>243</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="14">
-      <c r="B12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" ht="14">
-      <c r="B13" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="14">
-      <c r="B14" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="14">
-      <c r="B15" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="14">
@@ -5101,7 +5798,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" ht="14">
@@ -5110,137 +5807,349 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" ht="14">
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="14">
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="14">
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" ht="14">
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" ht="14">
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" ht="14">
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" ht="14">
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:8" ht="14">
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" ht="14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" ht="14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" ht="14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:8" ht="14">
-      <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="2:8" ht="14">
-      <c r="B30" s="4"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="2:8" ht="14"/>
-    <row r="32" spans="2:8" ht="14"/>
-    <row r="33" ht="14"/>
-    <row r="34" ht="14"/>
+    <row r="24" spans="2:8" ht="14"/>
+    <row r="25" spans="2:8" ht="14"/>
+    <row r="26" spans="2:8" ht="14"/>
+    <row r="27" spans="2:8" ht="14"/>
+    <row r="28" spans="2:8" ht="15" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1"/>
+    <row r="31" spans="2:8" ht="15" customHeight="1"/>
+    <row r="32" spans="2:8" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
     <row r="36" ht="15" customHeight="1"/>
     <row r="37" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17">
+      <formula1>"Yes,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="19" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="52.5" customHeight="1"/>
+    <row r="2" spans="2:8" ht="17.5">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="2:8" ht="14">
+      <c r="B3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8" ht="14">
+      <c r="B4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" ht="28">
+      <c r="B5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="28">
+      <c r="B6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" ht="14">
+      <c r="B7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="14">
+      <c r="B8" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" ht="14">
+      <c r="B9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" ht="14">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="14">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" ht="14">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" ht="14">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" ht="14">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" ht="14">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" ht="14"/>
+    <row r="17" ht="14"/>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1"/>
+    <row r="22" ht="15" customHeight="1"/>
+    <row r="23" ht="15" customHeight="1"/>
+    <row r="24" ht="15" customHeight="1"/>
+    <row r="25" ht="15" customHeight="1"/>
+    <row r="26" ht="15" customHeight="1"/>
+    <row r="27" ht="15" customHeight="1"/>
+    <row r="28" ht="15" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1"/>
+    <row r="30" ht="15" customHeight="1"/>
+    <row r="31" ht="15" customHeight="1"/>
+    <row r="32" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15" customHeight="1"/>
+    <row r="37" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E15">
       <formula1>"Yes,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5254,7 +6163,7 @@
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -6071,7 +6980,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="16">
-        <v>45000</v>
+        <v>44973</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>11</v>
@@ -6143,7 +7052,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A24" sqref="A24:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -6176,7 +7085,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -6185,62 +7094,62 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -6406,46 +7315,14 @@
       <c r="G23" s="8"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" ht="14">
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:8" ht="14">
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" ht="14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" ht="14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="2:8" ht="14"/>
-    <row r="29" spans="2:8" ht="14"/>
-    <row r="30" spans="2:8" ht="14"/>
-    <row r="31" spans="2:8" ht="14"/>
+    <row r="24" spans="2:8" ht="14"/>
+    <row r="25" spans="2:8" ht="14"/>
+    <row r="26" spans="2:8" ht="15" customHeight="1"/>
+    <row r="27" spans="2:8" ht="15" customHeight="1"/>
+    <row r="28" spans="2:8" ht="15" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1"/>
+    <row r="31" spans="2:8" ht="15" customHeight="1"/>
     <row r="32" spans="2:8" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
@@ -6463,10 +7340,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -6499,7 +7376,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -6508,73 +7385,73 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="14">
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="19"/>
@@ -6582,35 +7459,35 @@
     </row>
     <row r="7" spans="2:8" ht="14">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" ht="14">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="19"/>
@@ -6618,16 +7495,16 @@
     </row>
     <row r="9" spans="2:8" ht="14">
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="19"/>
@@ -6635,16 +7512,16 @@
     </row>
     <row r="10" spans="2:8" ht="14">
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="19"/>
@@ -6652,16 +7529,16 @@
     </row>
     <row r="11" spans="2:8" ht="14">
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="19"/>
@@ -6669,83 +7546,83 @@
     </row>
     <row r="12" spans="2:8" ht="28">
       <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" ht="14">
       <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="14">
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="14">
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -6754,7 +7631,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="19"/>
@@ -6765,7 +7642,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="19"/>
@@ -6776,7 +7653,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="19"/>
@@ -6787,7 +7664,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="19"/>
@@ -6798,7 +7675,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="19"/>
@@ -6809,7 +7686,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="19"/>
@@ -6820,7 +7697,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="19"/>
@@ -6831,7 +7708,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="19"/>
@@ -6842,7 +7719,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="19"/>
@@ -6853,82 +7730,16 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="19"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" ht="14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" ht="14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" ht="14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:8" ht="14">
-      <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="2:8" ht="14">
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="2:8" ht="14">
-      <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="2:8" ht="14">
-      <c r="B32" s="4"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" ht="14"/>
-    <row r="34" ht="14"/>
-    <row r="35" ht="14"/>
-    <row r="36" ht="14"/>
-    <row r="37" ht="15" customHeight="1"/>
-    <row r="38" ht="15" customHeight="1"/>
-    <row r="39" ht="15" customHeight="1"/>
+    <row r="26" spans="2:8" ht="14"/>
+    <row r="27" spans="2:8" ht="15" customHeight="1"/>
+    <row r="28" spans="2:8" ht="15" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
@@ -6944,10 +7755,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -6980,7 +7791,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -6989,37 +7800,37 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -7027,30 +7838,38 @@
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="14">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" ht="14">
@@ -7181,11 +8000,11 @@
     </row>
     <row r="21" spans="2:8" ht="14">
       <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" ht="14">
@@ -7200,7 +8019,7 @@
     <row r="23" spans="2:8" ht="14">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="8"/>
@@ -7209,50 +8028,27 @@
     <row r="24" spans="2:8" ht="14">
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" ht="14">
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" ht="14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" ht="14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="2:8" ht="14"/>
-    <row r="29" spans="2:8" ht="14"/>
-    <row r="30" spans="2:8" ht="14"/>
-    <row r="31" spans="2:8" ht="14"/>
+    <row r="25" spans="2:8" ht="15" customHeight="1"/>
+    <row r="26" spans="2:8" ht="15" customHeight="1"/>
+    <row r="27" spans="2:8" ht="15" customHeight="1"/>
+    <row r="28" spans="2:8" ht="15" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1"/>
+    <row r="31" spans="2:8" ht="15" customHeight="1"/>
     <row r="32" spans="2:8" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E21">
       <formula1>"Yes,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7266,7 +8062,7 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -7299,96 +8095,106 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="2:8" ht="14">
+    <row r="3" spans="2:8" ht="28">
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>283</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>92</v>
+      <c r="G5" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="14">
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>95</v>
+      <c r="G6" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:8" ht="14">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+    <row r="7" spans="2:8" ht="42">
+      <c r="B7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="23" t="s">
+        <v>282</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" ht="14">
@@ -7397,7 +8203,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" ht="14">
@@ -7406,7 +8212,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="14">
@@ -7415,7 +8221,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" ht="14">
@@ -7424,7 +8230,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="14">
@@ -7433,7 +8239,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" ht="14">
@@ -7442,7 +8248,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="14">
@@ -7451,7 +8257,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="14">
@@ -7463,127 +8269,23 @@
       <c r="G15" s="4"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" ht="14">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" ht="14">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" ht="14">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="2:8" ht="14">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="2:8" ht="14">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:8" ht="14">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8" ht="14">
-      <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:8" ht="14">
-      <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="2:8" ht="14">
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:8" ht="14">
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" ht="14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" ht="14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" ht="14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="2:8" ht="14"/>
-    <row r="30" spans="2:8" ht="14"/>
-    <row r="31" spans="2:8" ht="14"/>
-    <row r="32" spans="2:8" ht="14"/>
+    <row r="16" spans="2:8" ht="15" customHeight="1"/>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1"/>
+    <row r="22" ht="15" customHeight="1"/>
+    <row r="23" ht="15" customHeight="1"/>
+    <row r="24" ht="15" customHeight="1"/>
+    <row r="25" ht="15" customHeight="1"/>
+    <row r="26" ht="15" customHeight="1"/>
+    <row r="27" ht="15" customHeight="1"/>
+    <row r="28" ht="15" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1"/>
+    <row r="30" ht="15" customHeight="1"/>
+    <row r="31" ht="15" customHeight="1"/>
+    <row r="32" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -7591,7 +8293,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E15">
       <formula1>"Yes,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7605,7 +8307,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -7638,7 +8340,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -7647,37 +8349,37 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -7685,16 +8387,16 @@
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -7702,20 +8404,20 @@
     </row>
     <row r="6" spans="2:8" ht="14">
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -7863,64 +8565,16 @@
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" ht="14">
-      <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="2:8" ht="14">
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:8" ht="14">
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" ht="14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" ht="14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" ht="14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="2:8" ht="14"/>
-    <row r="30" spans="2:8" ht="14"/>
-    <row r="31" spans="2:8" ht="14"/>
-    <row r="32" spans="2:8" ht="14"/>
+    <row r="23" spans="2:8" ht="15" customHeight="1"/>
+    <row r="24" spans="2:8" ht="15" customHeight="1"/>
+    <row r="25" spans="2:8" ht="15" customHeight="1"/>
+    <row r="26" spans="2:8" ht="15" customHeight="1"/>
+    <row r="27" spans="2:8" ht="15" customHeight="1"/>
+    <row r="28" spans="2:8" ht="15" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1"/>
+    <row r="31" spans="2:8" ht="15" customHeight="1"/>
+    <row r="32" spans="2:8" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -7975,7 +8629,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -7984,37 +8638,37 @@
     </row>
     <row r="3" spans="2:8" ht="14">
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="14">
       <c r="B4" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -8022,16 +8676,16 @@
     </row>
     <row r="5" spans="2:8" ht="14">
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -8039,20 +8693,20 @@
     </row>
     <row r="6" spans="2:8" ht="14">
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H6" s="6"/>
     </row>

--- a/Docs/数据库设计书.xlsx
+++ b/Docs/数据库设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9710" tabRatio="673" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9710" tabRatio="673" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5894,7 +5894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -6154,7 +6154,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7031,8 +7032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -7051,8 +7052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:H29"/>
+    <sheetView topLeftCell="B2" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
@@ -7342,15 +7343,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.9140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.9140625" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
@@ -8062,7 +8063,7 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
